--- a/split_data/input/all_cities/TaiChung.xlsx
+++ b/split_data/input/all_cities/TaiChung.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I779"/>
+  <dimension ref="A1:I703"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17483,7 +17483,7 @@
       <c r="E615" t="inlineStr"/>
       <c r="F615" t="inlineStr">
         <is>
-          <t>太堤東路新仁橋附近</t>
+          <t>太堤東路15號附近</t>
         </is>
       </c>
       <c r="G615" t="n">
@@ -17510,14 +17510,14 @@
       <c r="E616" t="inlineStr"/>
       <c r="F616" t="inlineStr">
         <is>
-          <t>太堤東路15號附近</t>
+          <t>太堤東路近光興路1215巷附近</t>
         </is>
       </c>
       <c r="G616" t="n">
         <v>5</v>
       </c>
       <c r="H616" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I616" t="inlineStr"/>
     </row>
@@ -17537,14 +17537,14 @@
       <c r="E617" t="inlineStr"/>
       <c r="F617" t="inlineStr">
         <is>
-          <t>太堤東路37號附近</t>
+          <t>光興路1422號附近</t>
         </is>
       </c>
       <c r="G617" t="n">
         <v>5</v>
       </c>
       <c r="H617" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I617" t="inlineStr"/>
     </row>
@@ -17564,14 +17564,14 @@
       <c r="E618" t="inlineStr"/>
       <c r="F618" t="inlineStr">
         <is>
-          <t>太堤東路近光興路1215巷附近(路燈編號09444</t>
+          <t>光興路1521號附近</t>
         </is>
       </c>
       <c r="G618" t="n">
         <v>5</v>
       </c>
       <c r="H618" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I618" t="inlineStr"/>
     </row>
@@ -17591,7 +17591,7 @@
       <c r="E619" t="inlineStr"/>
       <c r="F619" t="inlineStr">
         <is>
-          <t>光興路1521號附近</t>
+          <t>光興路1876號附近</t>
         </is>
       </c>
       <c r="G619" t="n">
@@ -19870,1760 +19870,6 @@
       </c>
       <c r="I703" t="inlineStr"/>
     </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B704" t="inlineStr"/>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr"/>
-      <c r="E704" t="inlineStr"/>
-      <c r="F704" t="inlineStr">
-        <is>
-          <t>龍井區向上路6段與中興路口至沙鹿區向上路6段與自立路口</t>
-        </is>
-      </c>
-      <c r="G704" t="n">
-        <v>964</v>
-      </c>
-      <c r="H704" t="inlineStr">
-        <is>
-          <t>50公里</t>
-        </is>
-      </c>
-      <c r="I704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B705" t="inlineStr"/>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr"/>
-      <c r="E705" t="inlineStr"/>
-      <c r="F705" t="inlineStr">
-        <is>
-          <t>台61線快速道路157.8K至151.6K(南向北)</t>
-        </is>
-      </c>
-      <c r="G705" t="n">
-        <v>964</v>
-      </c>
-      <c r="H705" t="inlineStr">
-        <is>
-          <t>90公里(大車80公里)</t>
-        </is>
-      </c>
-      <c r="I705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B706" t="inlineStr"/>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr"/>
-      <c r="E706" t="inlineStr"/>
-      <c r="F706" t="inlineStr">
-        <is>
-          <t>台61線快速道路148.1K至156.4K(北向南)</t>
-        </is>
-      </c>
-      <c r="G706" t="n">
-        <v>964</v>
-      </c>
-      <c r="H706" t="inlineStr">
-        <is>
-          <t>90公里(大車80公里)</t>
-        </is>
-      </c>
-      <c r="I706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B707" t="inlineStr"/>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr"/>
-      <c r="E707" t="inlineStr"/>
-      <c r="F707" t="inlineStr">
-        <is>
-          <t>烏日高鐵站站區一路(1樓乘客上客區、2樓乘客下客區)</t>
-        </is>
-      </c>
-      <c r="G707" t="inlineStr">
-        <is>
-          <t>違規(臨時)停車、違規上、下客、違規攬客</t>
-        </is>
-      </c>
-      <c r="H707" t="inlineStr"/>
-      <c r="I707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B708" t="inlineStr"/>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr"/>
-      <c r="E708" t="inlineStr"/>
-      <c r="F708" t="inlineStr">
-        <is>
-          <t>豐原區中正路1號（豐原火車站）</t>
-        </is>
-      </c>
-      <c r="G708" t="inlineStr">
-        <is>
-          <t>違規(臨時)停車</t>
-        </is>
-      </c>
-      <c r="H708" t="inlineStr"/>
-      <c r="I708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B709" t="inlineStr"/>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr"/>
-      <c r="E709" t="inlineStr"/>
-      <c r="F709" t="inlineStr">
-        <is>
-          <t>西區臺灣大道與忠明南路（忠明路）口</t>
-        </is>
-      </c>
-      <c r="G709" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H709" t="inlineStr"/>
-      <c r="I709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B710" t="inlineStr"/>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr"/>
-      <c r="E710" t="inlineStr"/>
-      <c r="F710" t="inlineStr">
-        <is>
-          <t>北區三民路、五權路、崇德路、錦南街口</t>
-        </is>
-      </c>
-      <c r="G710" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H710" t="inlineStr"/>
-      <c r="I710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B711" t="inlineStr"/>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr"/>
-      <c r="E711" t="inlineStr"/>
-      <c r="F711" t="inlineStr">
-        <is>
-          <t>東區建成路、振興路、進德路、忠孝路口</t>
-        </is>
-      </c>
-      <c r="G711" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H711" t="inlineStr"/>
-      <c r="I711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B712" t="inlineStr"/>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr"/>
-      <c r="E712" t="inlineStr"/>
-      <c r="F712" t="inlineStr">
-        <is>
-          <t>南區建國北路與文心南路口</t>
-        </is>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H712" t="inlineStr"/>
-      <c r="I712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B713" t="inlineStr"/>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr"/>
-      <c r="E713" t="inlineStr"/>
-      <c r="F713" t="inlineStr">
-        <is>
-          <t>南屯區環中路與五權西路口</t>
-        </is>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H713" t="inlineStr"/>
-      <c r="I713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B714" t="inlineStr"/>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr"/>
-      <c r="E714" t="inlineStr"/>
-      <c r="F714" t="inlineStr">
-        <is>
-          <t>南屯區環中路與永春路口</t>
-        </is>
-      </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H714" t="inlineStr"/>
-      <c r="I714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B715" t="inlineStr"/>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr"/>
-      <c r="E715" t="inlineStr"/>
-      <c r="F715" t="inlineStr">
-        <is>
-          <t>北屯區崇德路與文心路口</t>
-        </is>
-      </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H715" t="inlineStr"/>
-      <c r="I715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B716" t="inlineStr"/>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr"/>
-      <c r="E716" t="inlineStr"/>
-      <c r="F716" t="inlineStr">
-        <is>
-          <t>北屯區環中東路與太原路口</t>
-        </is>
-      </c>
-      <c r="G716" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H716" t="inlineStr"/>
-      <c r="I716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B717" t="inlineStr"/>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr"/>
-      <c r="E717" t="inlineStr"/>
-      <c r="F717" t="inlineStr">
-        <is>
-          <t>北屯區文心路與北屯路口</t>
-        </is>
-      </c>
-      <c r="G717" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H717" t="inlineStr"/>
-      <c r="I717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B718" t="inlineStr"/>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr"/>
-      <c r="E718" t="inlineStr"/>
-      <c r="F718" t="inlineStr">
-        <is>
-          <t>北屯區(北區)中清路與文心路口</t>
-        </is>
-      </c>
-      <c r="G718" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H718" t="inlineStr"/>
-      <c r="I718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B719" t="inlineStr"/>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr"/>
-      <c r="E719" t="inlineStr"/>
-      <c r="F719" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與文心路口</t>
-        </is>
-      </c>
-      <c r="G719" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H719" t="inlineStr"/>
-      <c r="I719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B720" t="inlineStr"/>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr"/>
-      <c r="E720" t="inlineStr"/>
-      <c r="F720" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與安和路口</t>
-        </is>
-      </c>
-      <c r="G720" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H720" t="inlineStr"/>
-      <c r="I720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B721" t="inlineStr"/>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr"/>
-      <c r="E721" t="inlineStr"/>
-      <c r="F721" t="inlineStr">
-        <is>
-          <t>西屯區環中路與西屯路口</t>
-        </is>
-      </c>
-      <c r="G721" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H721" t="inlineStr"/>
-      <c r="I721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B722" t="inlineStr"/>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr"/>
-      <c r="E722" t="inlineStr"/>
-      <c r="F722" t="inlineStr">
-        <is>
-          <t>西屯區市政路與環中路口</t>
-        </is>
-      </c>
-      <c r="G722" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H722" t="inlineStr"/>
-      <c r="I722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B723" t="inlineStr"/>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr"/>
-      <c r="E723" t="inlineStr"/>
-      <c r="F723" t="inlineStr">
-        <is>
-          <t>西屯區環中路與中清路口</t>
-        </is>
-      </c>
-      <c r="G723" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H723" t="inlineStr"/>
-      <c r="I723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B724" t="inlineStr"/>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr"/>
-      <c r="E724" t="inlineStr"/>
-      <c r="F724" t="inlineStr">
-        <is>
-          <t>沙鹿區正英路與臺灣大道口</t>
-        </is>
-      </c>
-      <c r="G724" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H724" t="inlineStr"/>
-      <c r="I724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B725" t="inlineStr"/>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr"/>
-      <c r="E725" t="inlineStr"/>
-      <c r="F725" t="inlineStr">
-        <is>
-          <t>沙鹿區中山路、三民路、臺灣大道口</t>
-        </is>
-      </c>
-      <c r="G725" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H725" t="inlineStr"/>
-      <c r="I725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B726" t="inlineStr"/>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr"/>
-      <c r="E726" t="inlineStr"/>
-      <c r="F726" t="inlineStr">
-        <is>
-          <t>太平區中山路與環中東路口</t>
-        </is>
-      </c>
-      <c r="G726" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H726" t="inlineStr"/>
-      <c r="I726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B727" t="inlineStr"/>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr"/>
-      <c r="E727" t="inlineStr"/>
-      <c r="F727" t="inlineStr">
-        <is>
-          <t>潭子區中山路與環中東路口</t>
-        </is>
-      </c>
-      <c r="G727" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H727" t="inlineStr"/>
-      <c r="I727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr"/>
-      <c r="C728" t="inlineStr"/>
-      <c r="D728" t="inlineStr"/>
-      <c r="E728" t="inlineStr"/>
-      <c r="F728" t="inlineStr">
-        <is>
-          <t>潭子區中山路與雅潭路口</t>
-        </is>
-      </c>
-      <c r="G728" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H728" t="inlineStr"/>
-      <c r="I728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr"/>
-      <c r="C729" t="inlineStr"/>
-      <c r="D729" t="inlineStr"/>
-      <c r="E729" t="inlineStr"/>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>大里區國光路與環中東路口</t>
-        </is>
-      </c>
-      <c r="G729" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H729" t="inlineStr"/>
-      <c r="I729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B730" t="inlineStr"/>
-      <c r="C730" t="inlineStr"/>
-      <c r="D730" t="inlineStr"/>
-      <c r="E730" t="inlineStr"/>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>北區英才路與學士路口</t>
-        </is>
-      </c>
-      <c r="G730" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人、違規停車</t>
-        </is>
-      </c>
-      <c r="H730" t="inlineStr"/>
-      <c r="I730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B731" t="inlineStr"/>
-      <c r="C731" t="inlineStr"/>
-      <c r="D731" t="inlineStr"/>
-      <c r="E731" t="inlineStr"/>
-      <c r="F731" t="inlineStr">
-        <is>
-          <t>南屯區文心路與向上路口</t>
-        </is>
-      </c>
-      <c r="G731" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H731" t="inlineStr"/>
-      <c r="I731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B732" t="inlineStr"/>
-      <c r="C732" t="inlineStr"/>
-      <c r="D732" t="inlineStr"/>
-      <c r="E732" t="inlineStr"/>
-      <c r="F732" t="inlineStr">
-        <is>
-          <t>南屯區環中路與向上路口</t>
-        </is>
-      </c>
-      <c r="G732" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H732" t="inlineStr"/>
-      <c r="I732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B733" t="inlineStr"/>
-      <c r="C733" t="inlineStr"/>
-      <c r="D733" t="inlineStr"/>
-      <c r="E733" t="inlineStr"/>
-      <c r="F733" t="inlineStr">
-        <is>
-          <t>北屯區環中路與崇德路口</t>
-        </is>
-      </c>
-      <c r="G733" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H733" t="inlineStr"/>
-      <c r="I733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B734" t="inlineStr"/>
-      <c r="C734" t="inlineStr"/>
-      <c r="D734" t="inlineStr"/>
-      <c r="E734" t="inlineStr"/>
-      <c r="F734" t="inlineStr">
-        <is>
-          <t>北屯區松竹路與環中東路口</t>
-        </is>
-      </c>
-      <c r="G734" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H734" t="inlineStr"/>
-      <c r="I734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B735" t="inlineStr"/>
-      <c r="C735" t="inlineStr"/>
-      <c r="D735" t="inlineStr"/>
-      <c r="E735" t="inlineStr"/>
-      <c r="F735" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與惠中路口</t>
-        </is>
-      </c>
-      <c r="G735" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H735" t="inlineStr"/>
-      <c r="I735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B736" t="inlineStr"/>
-      <c r="C736" t="inlineStr"/>
-      <c r="D736" t="inlineStr"/>
-      <c r="E736" t="inlineStr"/>
-      <c r="F736" t="inlineStr">
-        <is>
-          <t>西屯區中清聯絡道與環中路口</t>
-        </is>
-      </c>
-      <c r="G736" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H736" t="inlineStr"/>
-      <c r="I736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B737" t="inlineStr"/>
-      <c r="C737" t="inlineStr"/>
-      <c r="D737" t="inlineStr"/>
-      <c r="E737" t="inlineStr"/>
-      <c r="F737" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與黎明路口</t>
-        </is>
-      </c>
-      <c r="G737" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人、違規停車</t>
-        </is>
-      </c>
-      <c r="H737" t="inlineStr"/>
-      <c r="I737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B738" t="inlineStr"/>
-      <c r="C738" t="inlineStr"/>
-      <c r="D738" t="inlineStr"/>
-      <c r="E738" t="inlineStr"/>
-      <c r="F738" t="inlineStr">
-        <is>
-          <t>中區臺灣大道與三民路口</t>
-        </is>
-      </c>
-      <c r="G738" t="inlineStr">
-        <is>
-          <t>闖紅燈、違規停車、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H738" t="inlineStr"/>
-      <c r="I738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B739" t="inlineStr"/>
-      <c r="C739" t="inlineStr"/>
-      <c r="D739" t="inlineStr"/>
-      <c r="E739" t="inlineStr"/>
-      <c r="F739" t="inlineStr">
-        <is>
-          <t>大雅區中清路與月祥路口</t>
-        </is>
-      </c>
-      <c r="G739" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H739" t="inlineStr"/>
-      <c r="I739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B740" t="inlineStr"/>
-      <c r="C740" t="inlineStr"/>
-      <c r="D740" t="inlineStr"/>
-      <c r="E740" t="inlineStr"/>
-      <c r="F740" t="inlineStr">
-        <is>
-          <t>神岡區后神路、圳前路口</t>
-        </is>
-      </c>
-      <c r="G740" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H740" t="inlineStr"/>
-      <c r="I740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B741" t="inlineStr"/>
-      <c r="C741" t="inlineStr"/>
-      <c r="D741" t="inlineStr"/>
-      <c r="E741" t="inlineStr"/>
-      <c r="F741" t="inlineStr">
-        <is>
-          <t>沙鹿區屏西路與向上路口</t>
-        </is>
-      </c>
-      <c r="G741" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H741" t="inlineStr"/>
-      <c r="I741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B742" t="inlineStr"/>
-      <c r="C742" t="inlineStr"/>
-      <c r="D742" t="inlineStr"/>
-      <c r="E742" t="inlineStr"/>
-      <c r="F742" t="inlineStr">
-        <is>
-          <t>沙鹿區向上路與自立路口</t>
-        </is>
-      </c>
-      <c r="G742" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H742" t="inlineStr"/>
-      <c r="I742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B743" t="inlineStr"/>
-      <c r="C743" t="inlineStr"/>
-      <c r="D743" t="inlineStr"/>
-      <c r="E743" t="inlineStr"/>
-      <c r="F743" t="inlineStr">
-        <is>
-          <t>后里區三豐路與枋寮路口(后豐大橋)</t>
-        </is>
-      </c>
-      <c r="G743" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H743" t="inlineStr"/>
-      <c r="I743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B744" t="inlineStr"/>
-      <c r="C744" t="inlineStr"/>
-      <c r="D744" t="inlineStr"/>
-      <c r="E744" t="inlineStr"/>
-      <c r="F744" t="inlineStr">
-        <is>
-          <t>南區國光路與忠明南路口</t>
-        </is>
-      </c>
-      <c r="G744" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H744" t="inlineStr"/>
-      <c r="I744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B745" t="inlineStr"/>
-      <c r="C745" t="inlineStr"/>
-      <c r="D745" t="inlineStr"/>
-      <c r="E745" t="inlineStr"/>
-      <c r="F745" t="inlineStr">
-        <is>
-          <t>南區文心南路與復興路口</t>
-        </is>
-      </c>
-      <c r="G745" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H745" t="inlineStr"/>
-      <c r="I745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B746" t="inlineStr"/>
-      <c r="C746" t="inlineStr"/>
-      <c r="D746" t="inlineStr"/>
-      <c r="E746" t="inlineStr"/>
-      <c r="F746" t="inlineStr">
-        <is>
-          <t>大里區環中東路與新仁路口</t>
-        </is>
-      </c>
-      <c r="G746" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H746" t="inlineStr"/>
-      <c r="I746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B747" t="inlineStr"/>
-      <c r="C747" t="inlineStr"/>
-      <c r="D747" t="inlineStr"/>
-      <c r="E747" t="inlineStr"/>
-      <c r="F747" t="inlineStr">
-        <is>
-          <t>大里區環中東路與德芳南路</t>
-        </is>
-      </c>
-      <c r="G747" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H747" t="inlineStr"/>
-      <c r="I747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B748" t="inlineStr"/>
-      <c r="C748" t="inlineStr"/>
-      <c r="D748" t="inlineStr"/>
-      <c r="E748" t="inlineStr"/>
-      <c r="F748" t="inlineStr">
-        <is>
-          <t>太平區東平路、祥順路一段（樂業路匝道）</t>
-        </is>
-      </c>
-      <c r="G748" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H748" t="inlineStr"/>
-      <c r="I748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B749" t="inlineStr"/>
-      <c r="C749" t="inlineStr"/>
-      <c r="D749" t="inlineStr"/>
-      <c r="E749" t="inlineStr"/>
-      <c r="F749" t="inlineStr">
-        <is>
-          <t>烏日區高鐵東路與中山路口</t>
-        </is>
-      </c>
-      <c r="G749" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H749" t="inlineStr"/>
-      <c r="I749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B750" t="inlineStr"/>
-      <c r="C750" t="inlineStr"/>
-      <c r="D750" t="inlineStr"/>
-      <c r="E750" t="inlineStr"/>
-      <c r="F750" t="inlineStr">
-        <is>
-          <t>西區臺灣大道與五權路口</t>
-        </is>
-      </c>
-      <c r="G750" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H750" t="inlineStr"/>
-      <c r="I750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B751" t="inlineStr"/>
-      <c r="C751" t="inlineStr"/>
-      <c r="D751" t="inlineStr"/>
-      <c r="E751" t="inlineStr"/>
-      <c r="F751" t="inlineStr">
-        <is>
-          <t>西區臺灣大道與民權路口</t>
-        </is>
-      </c>
-      <c r="G751" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H751" t="inlineStr"/>
-      <c r="I751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B752" t="inlineStr"/>
-      <c r="C752" t="inlineStr"/>
-      <c r="D752" t="inlineStr"/>
-      <c r="E752" t="inlineStr"/>
-      <c r="F752" t="inlineStr">
-        <is>
-          <t>西區東興路與公益路口</t>
-        </is>
-      </c>
-      <c r="G752" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H752" t="inlineStr"/>
-      <c r="I752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B753" t="inlineStr"/>
-      <c r="C753" t="inlineStr"/>
-      <c r="D753" t="inlineStr"/>
-      <c r="E753" t="inlineStr"/>
-      <c r="F753" t="inlineStr">
-        <is>
-          <t>西區自由路與林森路口</t>
-        </is>
-      </c>
-      <c r="G753" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H753" t="inlineStr"/>
-      <c r="I753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B754" t="inlineStr"/>
-      <c r="C754" t="inlineStr"/>
-      <c r="D754" t="inlineStr"/>
-      <c r="E754" t="inlineStr"/>
-      <c r="F754" t="inlineStr">
-        <is>
-          <t>南區建國北路與東興路口</t>
-        </is>
-      </c>
-      <c r="G754" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙黃線、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H754" t="inlineStr"/>
-      <c r="I754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B755" t="inlineStr"/>
-      <c r="C755" t="inlineStr"/>
-      <c r="D755" t="inlineStr"/>
-      <c r="E755" t="inlineStr"/>
-      <c r="F755" t="inlineStr">
-        <is>
-          <t>東區精武路與旱溪西路口</t>
-        </is>
-      </c>
-      <c r="G755" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙黃線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H755" t="inlineStr"/>
-      <c r="I755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B756" t="inlineStr"/>
-      <c r="C756" t="inlineStr"/>
-      <c r="D756" t="inlineStr"/>
-      <c r="E756" t="inlineStr"/>
-      <c r="F756" t="inlineStr">
-        <is>
-          <t>東區精武路與進化路口</t>
-        </is>
-      </c>
-      <c r="G756" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H756" t="inlineStr"/>
-      <c r="I756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B757" t="inlineStr"/>
-      <c r="C757" t="inlineStr"/>
-      <c r="D757" t="inlineStr"/>
-      <c r="E757" t="inlineStr"/>
-      <c r="F757" t="inlineStr">
-        <is>
-          <t>南屯區向上路與忠勇路口</t>
-        </is>
-      </c>
-      <c r="G757" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H757" t="inlineStr"/>
-      <c r="I757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B758" t="inlineStr"/>
-      <c r="C758" t="inlineStr"/>
-      <c r="D758" t="inlineStr"/>
-      <c r="E758" t="inlineStr"/>
-      <c r="F758" t="inlineStr">
-        <is>
-          <t>南屯區忠勇路與永春南路口</t>
-        </is>
-      </c>
-      <c r="G758" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙黃線、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H758" t="inlineStr"/>
-      <c r="I758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B759" t="inlineStr"/>
-      <c r="C759" t="inlineStr"/>
-      <c r="D759" t="inlineStr"/>
-      <c r="E759" t="inlineStr"/>
-      <c r="F759" t="inlineStr">
-        <is>
-          <t>南屯區黎明路與環中路口</t>
-        </is>
-      </c>
-      <c r="G759" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線</t>
-        </is>
-      </c>
-      <c r="H759" t="inlineStr"/>
-      <c r="I759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B760" t="inlineStr"/>
-      <c r="C760" t="inlineStr"/>
-      <c r="D760" t="inlineStr"/>
-      <c r="E760" t="inlineStr"/>
-      <c r="F760" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與河南路口</t>
-        </is>
-      </c>
-      <c r="G760" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H760" t="inlineStr"/>
-      <c r="I760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B761" t="inlineStr"/>
-      <c r="C761" t="inlineStr"/>
-      <c r="D761" t="inlineStr"/>
-      <c r="E761" t="inlineStr"/>
-      <c r="F761" t="inlineStr">
-        <is>
-          <t>西屯區臺灣大道與工業區一路口</t>
-        </is>
-      </c>
-      <c r="G761" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H761" t="inlineStr"/>
-      <c r="I761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B762" t="inlineStr"/>
-      <c r="C762" t="inlineStr"/>
-      <c r="D762" t="inlineStr"/>
-      <c r="E762" t="inlineStr"/>
-      <c r="F762" t="inlineStr">
-        <is>
-          <t>烏日區高鐵東路與高鐵五路口</t>
-        </is>
-      </c>
-      <c r="G762" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H762" t="inlineStr"/>
-      <c r="I762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B763" t="inlineStr"/>
-      <c r="C763" t="inlineStr"/>
-      <c r="D763" t="inlineStr"/>
-      <c r="E763" t="inlineStr"/>
-      <c r="F763" t="inlineStr">
-        <is>
-          <t>北區三民路與育才北路口</t>
-        </is>
-      </c>
-      <c r="G763" t="inlineStr">
-        <is>
-          <t>不停讓行人(全行向)</t>
-        </is>
-      </c>
-      <c r="H763" t="inlineStr"/>
-      <c r="I763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B764" t="inlineStr"/>
-      <c r="C764" t="inlineStr"/>
-      <c r="D764" t="inlineStr"/>
-      <c r="E764" t="inlineStr"/>
-      <c r="F764" t="inlineStr">
-        <is>
-          <t>北區雙十路與精武路口</t>
-        </is>
-      </c>
-      <c r="G764" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H764" t="inlineStr"/>
-      <c r="I764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B765" t="inlineStr"/>
-      <c r="C765" t="inlineStr"/>
-      <c r="D765" t="inlineStr"/>
-      <c r="E765" t="inlineStr"/>
-      <c r="F765" t="inlineStr">
-        <is>
-          <t>北區太原路與崇德路口</t>
-        </is>
-      </c>
-      <c r="G765" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H765" t="inlineStr"/>
-      <c r="I765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B766" t="inlineStr"/>
-      <c r="C766" t="inlineStr"/>
-      <c r="D766" t="inlineStr"/>
-      <c r="E766" t="inlineStr"/>
-      <c r="F766" t="inlineStr">
-        <is>
-          <t>北區中清路與五權路口</t>
-        </is>
-      </c>
-      <c r="G766" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線</t>
-        </is>
-      </c>
-      <c r="H766" t="inlineStr"/>
-      <c r="I766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B767" t="inlineStr"/>
-      <c r="C767" t="inlineStr"/>
-      <c r="D767" t="inlineStr"/>
-      <c r="E767" t="inlineStr"/>
-      <c r="F767" t="inlineStr">
-        <is>
-          <t>北屯區太原路與南京東路口</t>
-        </is>
-      </c>
-      <c r="G767" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛不停讓行人、違規停車</t>
-        </is>
-      </c>
-      <c r="H767" t="inlineStr"/>
-      <c r="I767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B768" t="inlineStr"/>
-      <c r="C768" t="inlineStr"/>
-      <c r="D768" t="inlineStr"/>
-      <c r="E768" t="inlineStr"/>
-      <c r="F768" t="inlineStr">
-        <is>
-          <t>北屯區太原路與北屯路口</t>
-        </is>
-      </c>
-      <c r="G768" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H768" t="inlineStr"/>
-      <c r="I768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B769" t="inlineStr"/>
-      <c r="C769" t="inlineStr"/>
-      <c r="D769" t="inlineStr"/>
-      <c r="E769" t="inlineStr"/>
-      <c r="F769" t="inlineStr">
-        <is>
-          <t>北屯區敦富路與松竹路口</t>
-        </is>
-      </c>
-      <c r="G769" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H769" t="inlineStr"/>
-      <c r="I769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B770" t="inlineStr"/>
-      <c r="C770" t="inlineStr"/>
-      <c r="D770" t="inlineStr"/>
-      <c r="E770" t="inlineStr"/>
-      <c r="F770" t="inlineStr">
-        <is>
-          <t>大雅區民生路與神林南路口</t>
-        </is>
-      </c>
-      <c r="G770" t="inlineStr">
-        <is>
-          <t>闖紅燈、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H770" t="inlineStr"/>
-      <c r="I770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B771" t="inlineStr"/>
-      <c r="C771" t="inlineStr"/>
-      <c r="D771" t="inlineStr"/>
-      <c r="E771" t="inlineStr"/>
-      <c r="F771" t="inlineStr">
-        <is>
-          <t>大甲區中山路與育英路口</t>
-        </is>
-      </c>
-      <c r="G771" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線</t>
-        </is>
-      </c>
-      <c r="H771" t="inlineStr"/>
-      <c r="I771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B772" t="inlineStr"/>
-      <c r="C772" t="inlineStr"/>
-      <c r="D772" t="inlineStr"/>
-      <c r="E772" t="inlineStr"/>
-      <c r="F772" t="inlineStr">
-        <is>
-          <t>神岡區中山路與大洲路（大富路）口(近豐原交流道)</t>
-        </is>
-      </c>
-      <c r="G772" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線</t>
-        </is>
-      </c>
-      <c r="H772" t="inlineStr"/>
-      <c r="I772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B773" t="inlineStr"/>
-      <c r="C773" t="inlineStr"/>
-      <c r="D773" t="inlineStr"/>
-      <c r="E773" t="inlineStr"/>
-      <c r="F773" t="inlineStr">
-        <is>
-          <t>豐原區中正路與信義街口</t>
-        </is>
-      </c>
-      <c r="G773" t="inlineStr">
-        <is>
-          <t>闖紅燈、不停讓行人</t>
-        </is>
-      </c>
-      <c r="H773" t="inlineStr"/>
-      <c r="I773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B774" t="inlineStr"/>
-      <c r="C774" t="inlineStr"/>
-      <c r="D774" t="inlineStr"/>
-      <c r="E774" t="inlineStr"/>
-      <c r="F774" t="inlineStr">
-        <is>
-          <t>太平區市民大道與環中東路口</t>
-        </is>
-      </c>
-      <c r="G774" t="inlineStr">
-        <is>
-          <t>闖紅燈、跨越雙白線、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H774" t="inlineStr"/>
-      <c r="I774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B775" t="inlineStr"/>
-      <c r="C775" t="inlineStr"/>
-      <c r="D775" t="inlineStr"/>
-      <c r="E775" t="inlineStr"/>
-      <c r="F775" t="inlineStr">
-        <is>
-          <t>東勢區豐勢路與東關路7段口(北端)</t>
-        </is>
-      </c>
-      <c r="G775" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛</t>
-        </is>
-      </c>
-      <c r="H775" t="inlineStr"/>
-      <c r="I775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B776" t="inlineStr"/>
-      <c r="C776" t="inlineStr"/>
-      <c r="D776" t="inlineStr"/>
-      <c r="E776" t="inlineStr"/>
-      <c r="F776" t="inlineStr">
-        <is>
-          <t>石岡區明德路(西段)與豐勢路口</t>
-        </is>
-      </c>
-      <c r="G776" t="inlineStr">
-        <is>
-          <t>闖紅燈、不依標誌標線號誌指示行駛、跨越雙白線</t>
-        </is>
-      </c>
-      <c r="H776" t="inlineStr"/>
-      <c r="I776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B777" t="inlineStr"/>
-      <c r="C777" t="inlineStr"/>
-      <c r="D777" t="inlineStr"/>
-      <c r="E777" t="inlineStr"/>
-      <c r="F777" t="inlineStr">
-        <is>
-          <t>大里區台74線快速道路30.3K東向</t>
-        </is>
-      </c>
-      <c r="G777" t="inlineStr">
-        <is>
-          <t>大型車行駛內側車道</t>
-        </is>
-      </c>
-      <c r="H777" t="inlineStr"/>
-      <c r="I777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B778" t="inlineStr"/>
-      <c r="C778" t="inlineStr"/>
-      <c r="D778" t="inlineStr"/>
-      <c r="E778" t="inlineStr"/>
-      <c r="F778" t="inlineStr">
-        <is>
-          <t>大里區台74線快速道路31.6K西向</t>
-        </is>
-      </c>
-      <c r="G778" t="inlineStr">
-        <is>
-          <t>大型車行駛內側車道</t>
-        </is>
-      </c>
-      <c r="H778" t="inlineStr"/>
-      <c r="I778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>臺中市</t>
-        </is>
-      </c>
-      <c r="B779" t="inlineStr"/>
-      <c r="C779" t="inlineStr"/>
-      <c r="D779" t="inlineStr"/>
-      <c r="E779" t="inlineStr"/>
-      <c r="F779" t="inlineStr">
-        <is>
-          <t>和平區台8線17.1K近實踐橋(雙向)</t>
-        </is>
-      </c>
-      <c r="G779" t="inlineStr">
-        <is>
-          <t>跨越雙黃線</t>
-        </is>
-      </c>
-      <c r="H779" t="inlineStr"/>
-      <c r="I779" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
